--- a/test_from_mockup.xlsx
+++ b/test_from_mockup.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t xml:space="preserve">เล่มที่ 008     </t>
   </si>
@@ -23,7 +23,7 @@
     <t>ใบเสร็จรับเงิน</t>
   </si>
   <si>
-    <t xml:space="preserve"> เลขที่ 888</t>
+    <t xml:space="preserve"> เลขที่ 324</t>
   </si>
   <si>
     <t xml:space="preserve">           ห้างหุ้นส่วนจำกัด 3พ.รุ่งเรืองศึกษาภัณฑ์                </t>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">                                            </t>
   </si>
   <si>
-    <t xml:space="preserve">      วันที่ ...................................</t>
+    <t xml:space="preserve">      วันที่ 28 ธันวาคม 2566</t>
   </si>
   <si>
     <t>นาม…bindai school</t>
@@ -80,13 +80,7 @@
     <t>this is the detail</t>
   </si>
   <si>
-    <t>888</t>
-  </si>
-  <si>
     <t/>
-  </si>
-  <si>
-    <t>1234</t>
   </si>
   <si>
     <t>-</t>
@@ -1200,18 +1194,18 @@
       <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="28">
+        <v>123</v>
+      </c>
+      <c r="E11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="F11" s="30"/>
+      <c r="G11" s="31">
+        <v>155</v>
+      </c>
+      <c r="H11" s="32" t="s">
         <v>22</v>
-      </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1394,14 +1388,14 @@
       <c r="D29" s="48"/>
       <c r="E29" s="49"/>
       <c r="F29" s="46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G29" s="50">
         <f>SUM(G11:G26)</f>
         <v>0</v>
       </c>
       <c r="H29" s="51" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="12" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1418,7 +1412,7 @@
       <c r="A31" s="1"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -1430,7 +1424,7 @@
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -1452,7 +1446,7 @@
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -1596,7 +1590,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -1730,7 +1724,7 @@
         <v>MONEY</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2094,14 +2088,14 @@
       <c r="D29" s="48"/>
       <c r="E29" s="49"/>
       <c r="F29" s="46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G29" s="50">
         <f>+ต้นฉบับ!G29</f>
         <v>0</v>
       </c>
       <c r="H29" s="51" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="12" customHeight="1" spans="2:2" x14ac:dyDescent="0.25">
@@ -2110,14 +2104,14 @@
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -2129,7 +2123,7 @@
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
